--- a/products/冲调饮品/咖啡/大卫杜夫香醇即溶咖啡.xlsx
+++ b/products/冲调饮品/咖啡/大卫杜夫香醇即溶咖啡.xlsx
@@ -314,15 +314,15 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0927835051546"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.2680412371134"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="24.4690721649485"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.72680412371134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6649484536082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.9896907216495"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="25.6855670103093"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.08247422680412"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -537,11 +537,11 @@
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="B28" s="0" t="s">
         <v>30</v>
       </c>
     </row>
@@ -654,12 +654,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B28 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72680412371134"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.08247422680412"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -680,12 +680,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B28 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72680412371134"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.08247422680412"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
